--- a/features.xlsx
+++ b/features.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>tag</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>DOM depth</t>
+  </si>
+  <si>
+    <t>Relative ROM depth</t>
+  </si>
+  <si>
+    <t>3 / 10 = 0.3</t>
+  </si>
+  <si>
+    <t>depth / max_depth</t>
   </si>
 </sst>
 </file>
@@ -526,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +563,12 @@
     <col min="40" max="40" width="14.28515625" customWidth="1"/>
     <col min="41" max="41" width="11.42578125" customWidth="1"/>
     <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" customWidth="1"/>
+    <col min="46" max="46" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +698,14 @@
       <c r="AQ1" t="s">
         <v>61</v>
       </c>
+      <c r="AR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -814,8 +835,14 @@
       <c r="AQ2" t="s">
         <v>62</v>
       </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>1</v>
       </c>
@@ -905,6 +932,12 @@
       </c>
       <c r="AP3" t="s">
         <v>46</v>
+      </c>
+      <c r="AR3">
+        <v>13</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
